--- a/TM AOB Login Logout UFT AI3/Default.xlsx
+++ b/TM AOB Login Logout UFT AI3/Default.xlsx
@@ -280,19 +280,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -645,77 +645,94 @@
       </c>
       <c s="1"/>
       <c s="1"/>
+      <c s="3" t="s">
+        <v>5</v>
+      </c>
       <c s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c s="2" t="b">
+        <v>0</v>
+      </c>
+      <c s="6" t="s">
+        <v>11</v>
       </c>
       <c s="3" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c s="5"/>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>22</v>
+      </c>
+      <c s="3" t="s">
+        <v>10</v>
+      </c>
+      <c s="3" t="s">
+        <v>13</v>
       </c>
       <c s="3" t="b">
         <v>0</v>
       </c>
-      <c s="5" t="s">
-        <v>11</v>
-      </c>
-      <c s="2" t="s">
-        <v>4</v>
-      </c>
-      <c s="6"/>
+      <c s="6" t="s">
+        <v>14</v>
+      </c>
+      <c s="3" t="s">
+        <v>12</v>
+      </c>
+      <c s="5"/>
     </row>
     <row>
       <c s="1" t="s">
         <v>2</v>
       </c>
       <c s="1"/>
-      <c s="1" t="s">
-        <v>22</v>
+      <c s="1"/>
+      <c s="3" t="s">
+        <v>10</v>
       </c>
       <c s="2" t="s">
-        <v>10</v>
-      </c>
-      <c s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c s="2" t="b">
         <v>0</v>
       </c>
-      <c s="5" t="s">
+      <c s="6" t="s">
         <v>14</v>
       </c>
-      <c s="2" t="s">
+      <c s="3" t="s">
         <v>12</v>
       </c>
-      <c s="6"/>
+      <c s="5"/>
     </row>
     <row>
       <c s="1" t="s">
-        <v>2</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="2" t="s">
-        <v>10</v>
-      </c>
-      <c s="3" t="s">
-        <v>19</v>
-      </c>
-      <c s="3" t="b">
         <v>0</v>
       </c>
-      <c s="5" t="s">
-        <v>14</v>
-      </c>
-      <c s="2" t="s">
-        <v>12</v>
-      </c>
-      <c s="6"/>
+      <c s="1" t="s">
+        <v>9</v>
+      </c>
+      <c s="1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="5"/>
     </row>
     <row>
       <c s="1" t="s">
         <v>0</v>
       </c>
       <c s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c s="1" t="s">
         <v>1</v>
@@ -725,24 +742,7 @@
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
-      <c s="6"/>
-    </row>
-    <row>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>3</v>
-      </c>
-      <c s="1" t="s">
-        <v>1</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
